--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2875961.018039768</v>
+        <v>-2876774.465251656</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954292</v>
+        <v>2927877.345954295</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922378</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>125.8258535832917</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>95.74446766557784</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H12" t="n">
-        <v>96.15438866313592</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
         <v>57.7733452031032</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898421</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438469</v>
+        <v>67.85571073597728</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196308</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033074</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366586</v>
+        <v>66.63306124366582</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
         <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
-        <v>36.15315769763462</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810939</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>239.4588683496821</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G14" t="n">
-        <v>19.0364666512064</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545163</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898421</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.92267750438467</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196308</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592884</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033074</v>
+        <v>77.99174215033071</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366586</v>
+        <v>66.63306124366582</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227653</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>144.6412339512974</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
         <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>153.0520976037947</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F17" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864010986</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283884</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118837</v>
+        <v>86.3664569411883</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.473028650363199</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.4339761079444</v>
+        <v>197.3959288546029</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917109</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F20" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864010986</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283802</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118829</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.4339761079444</v>
+        <v>41.43397610794432</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917109</v>
+        <v>219.8495741058296</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W22" t="n">
-        <v>273.3298663644401</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305282</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449617</v>
       </c>
       <c r="F23" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864010986</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283883</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118837</v>
+        <v>86.3664569411883</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237291</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1529440554391</v>
+        <v>127.1529440554385</v>
       </c>
       <c r="H24" t="n">
         <v>96.15438866313485</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754357</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944139</v>
+        <v>1.992885992944053</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890091</v>
       </c>
       <c r="H25" t="n">
-        <v>138.0471092422562</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440137</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.4339761079444</v>
+        <v>197.3959288546029</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917109</v>
+        <v>63.887621359171</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026925</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716916</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358554</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965322</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668828</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690925</v>
       </c>
       <c r="E26" t="n">
         <v>288.338711438998</v>
@@ -2570,10 +2570,10 @@
         <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403574</v>
       </c>
       <c r="I26" t="n">
-        <v>47.8186887650086</v>
+        <v>47.81868876500866</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804717</v>
+        <v>70.58016145804723</v>
       </c>
       <c r="T26" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668751</v>
       </c>
       <c r="U26" t="n">
         <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070619</v>
       </c>
       <c r="W26" t="n">
         <v>256.4104295850187</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157976</v>
+        <v>79.22066374157981</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698024</v>
+        <v>65.4206585869803</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455863</v>
+        <v>49.04202298455868</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033808</v>
+        <v>47.98977284033813</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852439</v>
+        <v>48.45669716852444</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292628</v>
+        <v>64.48972323292634</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626146</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487208</v>
+        <v>32.99398650487213</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531253</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019806</v>
       </c>
       <c r="T28" t="n">
         <v>127.3153939532072</v>
@@ -2770,16 +2770,16 @@
         <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118187</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076218</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636895</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -3047,7 +3047,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
         <v>231.1103301070618</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076469</v>
+        <v>225.5276651076471</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220806</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579158</v>
+        <v>258.817414057916</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112982</v>
       </c>
       <c r="T35" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995767</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830712</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008478</v>
+        <v>225.623083100848</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466223</v>
+        <v>29.1330590246624</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006288</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600892</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343883</v>
+        <v>3.043437609344053</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.51683636612803</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506315</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628965</v>
+        <v>96.74462560241606</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242878</v>
+        <v>105.541195424288</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949013</v>
       </c>
       <c r="X37" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070437</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677205</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C38" t="n">
         <v>225.527665107647</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3569,7 +3569,7 @@
         <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,31 +3658,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.5168363661269</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343968</v>
+        <v>3.043437609343996</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.601992861725742</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440137</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506306</v>
+        <v>54.77414398506309</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798113</v>
@@ -3724,10 +3724,10 @@
         <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677197</v>
+        <v>67.228051246772</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
         <v>171.3885593234398</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995755</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901443</v>
@@ -3803,7 +3803,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
         <v>237.0196808970466</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.91895488213618</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H43" t="n">
-        <v>3.04343760934394</v>
+        <v>3.043437609343882</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506303</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U43" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242879</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070425</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677194</v>
+        <v>86.74488761290014</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E44" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112973</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
         <v>225.6230831008479</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945684</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C46" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343968</v>
+        <v>3.043437609343939</v>
       </c>
       <c r="I46" t="n">
-        <v>19.51683636612711</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506306</v>
+        <v>74.29098035119048</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677197</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1415.462410207931</v>
+        <v>1534.827082258378</v>
       </c>
       <c r="C11" t="n">
-        <v>1415.462410207931</v>
+        <v>1242.78941686245</v>
       </c>
       <c r="D11" t="n">
-        <v>1132.534538706419</v>
+        <v>1242.78941686245</v>
       </c>
       <c r="E11" t="n">
-        <v>827.6449120837908</v>
+        <v>937.899790239821</v>
       </c>
       <c r="F11" t="n">
-        <v>503.3898146652256</v>
+        <v>613.6446928212558</v>
       </c>
       <c r="G11" t="n">
-        <v>177.7261402286219</v>
+        <v>287.9810183846523</v>
       </c>
       <c r="H11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>358.6187566067426</v>
+        <v>439.2714293605862</v>
       </c>
       <c r="L11" t="n">
-        <v>790.6768958565435</v>
+        <v>871.3295686103871</v>
       </c>
       <c r="M11" t="n">
-        <v>1277.574482823758</v>
+        <v>1358.227155577602</v>
       </c>
       <c r="N11" t="n">
-        <v>1751.079753389619</v>
+        <v>1831.732426143463</v>
       </c>
       <c r="O11" t="n">
-        <v>2145.954364034585</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P11" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q11" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R11" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="T11" t="n">
-        <v>2531.465921365857</v>
+        <v>2434.754337865272</v>
       </c>
       <c r="U11" t="n">
-        <v>2531.465921365857</v>
+        <v>2434.754337865272</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.382740533063</v>
+        <v>2434.754337865272</v>
       </c>
       <c r="W11" t="n">
-        <v>2011.743903661928</v>
+        <v>2434.754337865272</v>
       </c>
       <c r="X11" t="n">
-        <v>1719.609856454686</v>
+        <v>2142.62029065803</v>
       </c>
       <c r="Y11" t="n">
-        <v>1719.609856454686</v>
+        <v>1838.974528505133</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877968</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189227</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091348</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E12" t="n">
-        <v>469.242993166006</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158804</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881647</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H12" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J12" t="n">
         <v>137.8463925088448</v>
@@ -5130,40 +5130,40 @@
         <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
-        <v>1984.042850779651</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.264736621381</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q12" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.6106545892812</v>
+        <v>328.4319002777588</v>
       </c>
       <c r="C13" t="n">
         <v>259.8907783222259</v>
@@ -5191,25 +5191,25 @@
         <v>117.9354408956665</v>
       </c>
       <c r="H13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413175</v>
+        <v>96.79005415413178</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958642</v>
+        <v>246.2990519958643</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405361</v>
+        <v>470.5847128405362</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447748</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068815</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077498</v>
@@ -5218,31 +5218,31 @@
         <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R13" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.547497730988</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T13" t="n">
         <v>1166.307686750573</v>
       </c>
       <c r="U13" t="n">
-        <v>969.0268560292259</v>
+        <v>969.0268560292262</v>
       </c>
       <c r="V13" t="n">
-        <v>798.187644858913</v>
+        <v>798.1876448589132</v>
       </c>
       <c r="W13" t="n">
-        <v>601.9273366475767</v>
+        <v>601.9273366475769</v>
       </c>
       <c r="X13" t="n">
-        <v>565.408995538855</v>
+        <v>460.5709658142172</v>
       </c>
       <c r="Y13" t="n">
-        <v>433.2699300023966</v>
+        <v>328.4319002777588</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1273.968333559089</v>
+        <v>1546.607170430223</v>
       </c>
       <c r="C14" t="n">
-        <v>981.9306681631605</v>
+        <v>1304.729525632564</v>
       </c>
       <c r="D14" t="n">
-        <v>699.0027966616485</v>
+        <v>1304.729525632564</v>
       </c>
       <c r="E14" t="n">
-        <v>394.1131700390197</v>
+        <v>999.8398990099354</v>
       </c>
       <c r="F14" t="n">
-        <v>69.85807262045492</v>
+        <v>675.5848015913701</v>
       </c>
       <c r="G14" t="n">
-        <v>50.62931842731714</v>
+        <v>349.9211271547663</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731714</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J14" t="n">
-        <v>131.2819911811619</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K14" t="n">
-        <v>439.2714293605873</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3295686103883</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.227155577603</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.732426143464</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.607036788429</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.465921365857</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="U14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="V14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="W14" t="n">
-        <v>2173.895589165983</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="X14" t="n">
-        <v>1881.761541958741</v>
+        <v>2154.400378829875</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.115779805843</v>
+        <v>1850.754616676978</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779667</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189216</v>
       </c>
       <c r="D15" t="n">
         <v>616.2710031091337</v>
@@ -5346,13 +5346,13 @@
         <v>334.5491951158793</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H15" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J15" t="n">
         <v>137.8463925088448</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>369.441002067888</v>
+        <v>276.4348546883083</v>
       </c>
       <c r="C16" t="n">
-        <v>369.441002067888</v>
+        <v>196.7149784212531</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2652021669151</v>
+        <v>196.7149784212531</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669151</v>
+        <v>196.7149784212531</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639567</v>
+        <v>196.7149784212531</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9011029383701</v>
+        <v>117.9354408956665</v>
       </c>
       <c r="H16" t="n">
-        <v>97.5949804700207</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413181</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K16" t="n">
         <v>246.2990519958643</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405361</v>
+        <v>470.5847128405362</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447747</v>
+        <v>714.1904553447748</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068815</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077498</v>
@@ -5455,31 +5455,31 @@
         <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>971.5561676960128</v>
+        <v>969.0268560292262</v>
       </c>
       <c r="V16" t="n">
-        <v>800.7169565257</v>
+        <v>798.1876448589132</v>
       </c>
       <c r="W16" t="n">
-        <v>604.4566483143635</v>
+        <v>643.5895664712418</v>
       </c>
       <c r="X16" t="n">
-        <v>463.1002774810033</v>
+        <v>502.233195637882</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.1002774810033</v>
+        <v>370.0941301014236</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121855</v>
+        <v>931.9619764121848</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F17" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720861</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J17" t="n">
         <v>167.8985774144699</v>
@@ -5522,40 +5522,40 @@
         <v>907.9461548436964</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144587</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710448</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355414</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
         <v>1577.954379218681</v>
@@ -5580,16 +5580,16 @@
         <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H18" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J18" t="n">
         <v>137.8463925088448</v>
@@ -5601,7 +5601,7 @@
         <v>841.2082694571445</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.552487108883</v>
+        <v>935.0807557888471</v>
       </c>
       <c r="N18" t="n">
         <v>1520.571119459615</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>205.7240262335077</v>
+        <v>53.71501199482636</v>
       </c>
       <c r="C19" t="n">
-        <v>203.7110100790187</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D19" t="n">
-        <v>203.7110100790187</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
@@ -5680,43 +5680,43 @@
         <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724612</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q19" t="n">
-        <v>777.4033794310254</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R19" t="n">
-        <v>777.4033794310254</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S19" t="n">
-        <v>735.5508783118896</v>
+        <v>583.5418640732076</v>
       </c>
       <c r="T19" t="n">
-        <v>671.0179274440401</v>
+        <v>519.0089132053581</v>
       </c>
       <c r="U19" t="n">
-        <v>551.4439568352597</v>
+        <v>399.4349425965778</v>
       </c>
       <c r="V19" t="n">
-        <v>458.3116057775129</v>
+        <v>306.3025915388312</v>
       </c>
       <c r="W19" t="n">
-        <v>339.7581576787427</v>
+        <v>187.7491434400611</v>
       </c>
       <c r="X19" t="n">
-        <v>276.1086469579491</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.6764415340569</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="20">
@@ -5729,64 +5729,64 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121858</v>
+        <v>931.9619764121855</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021229</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961242</v>
+        <v>458.230972596124</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720861</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J20" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K20" t="n">
-        <v>358.6187566067426</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L20" t="n">
-        <v>790.6768958565435</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.574482823758</v>
+        <v>1358.227155577602</v>
       </c>
       <c r="N20" t="n">
-        <v>1751.079753389619</v>
+        <v>1831.732426143463</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.954364034585</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P20" t="n">
-        <v>2450.813248612012</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S20" t="n">
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227626</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.252445112258</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W20" t="n">
         <v>2018.320468353689</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C21" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H21" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J21" t="n">
         <v>137.8463925088448</v>
@@ -5838,37 +5838,37 @@
         <v>841.2082694571445</v>
       </c>
       <c r="M21" t="n">
-        <v>935.080755788848</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P21" t="n">
         <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R21" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482655</v>
+        <v>53.71501199482636</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
@@ -5917,43 +5917,43 @@
         <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724612</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799333</v>
+        <v>741.0791900799335</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053581</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033033</v>
+        <v>399.4349425965778</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455565</v>
+        <v>306.3025915388312</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7491434400615</v>
+        <v>187.7491434400611</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0996327192679</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.66742729537569</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084493</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121848</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G23" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720859</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436964</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355413</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227623</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881636</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J24" t="n">
         <v>137.8463925088448</v>
@@ -6075,10 +6075,10 @@
         <v>841.2082694571445</v>
       </c>
       <c r="M24" t="n">
-        <v>935.0807557888476</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O24" t="n">
         <v>1980.672185824251</v>
@@ -6087,25 +6087,25 @@
         <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>193.156536481954</v>
+        <v>53.71501199482636</v>
       </c>
       <c r="C25" t="n">
-        <v>191.143520327465</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="D25" t="n">
-        <v>191.143520327465</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="E25" t="n">
-        <v>191.143520327465</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="F25" t="n">
-        <v>191.143520327465</v>
+        <v>51.70199584033742</v>
       </c>
       <c r="G25" t="n">
-        <v>190.0708429144446</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
@@ -6154,43 +6154,43 @@
         <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7082365724611</v>
+        <v>403.7082365724612</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7438668194015</v>
+        <v>558.7438668194017</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748515</v>
       </c>
       <c r="P25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.8358896794717</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="R25" t="n">
-        <v>764.8358896794717</v>
+        <v>782.9316911990692</v>
       </c>
       <c r="S25" t="n">
-        <v>722.9833885603359</v>
+        <v>583.5418640732076</v>
       </c>
       <c r="T25" t="n">
-        <v>658.4504376924864</v>
+        <v>519.0089132053581</v>
       </c>
       <c r="U25" t="n">
-        <v>538.876467083706</v>
+        <v>399.4349425965778</v>
       </c>
       <c r="V25" t="n">
-        <v>445.7441160259592</v>
+        <v>306.3025915388312</v>
       </c>
       <c r="W25" t="n">
-        <v>327.190667927189</v>
+        <v>187.7491434400611</v>
       </c>
       <c r="X25" t="n">
-        <v>263.5411572063954</v>
+        <v>124.0996327192676</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.1089517825032</v>
+        <v>69.66742729537543</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
         <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967892</v>
       </c>
       <c r="F26" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250971</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353663</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550346</v>
+        <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610937</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321548</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630806</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019168</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.365573339992</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083148</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052696</v>
@@ -6269,7 +6269,7 @@
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776121</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="K27" t="n">
-        <v>345.4948313340178</v>
+        <v>345.4948313340179</v>
       </c>
       <c r="L27" t="n">
         <v>773.2822179499626</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485938</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284113</v>
+        <v>369.0145279284117</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.477130974312</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537684</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974934</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166296</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K28" t="n">
         <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995732</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822381</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021227</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.595406688842</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362881</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486827</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453285</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678811</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553705</v>
+        <v>943.9574094553714</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909072</v>
+        <v>761.3355041909081</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044206</v>
+        <v>633.6175363044214</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148361</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>653.9606153250975</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6461,22 +6461,22 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322125</v>
+        <v>187.3366846949147</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550348</v>
+        <v>596.8002826177369</v>
       </c>
       <c r="L29" t="n">
         <v>1130.332581610935</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321547</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630805</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P29" t="n">
         <v>3196.365573339991</v>
@@ -6491,7 +6491,7 @@
         <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
         <v>3154.974523052696</v>
@@ -6500,7 +6500,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6540,22 +6540,22 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>69.92034100166293</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>325.8327248926394</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>753.6201115085842</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M30" t="n">
-        <v>1310.964329160322</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.454692831091</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.555759195726</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
         <v>2356.555759195726</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485937</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284117</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D31" t="n">
-        <v>319.477130974312</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537686</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976833</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189699</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
@@ -6637,7 +6637,7 @@
         <v>1277.215367021226</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q31" t="n">
         <v>1554.33387136288</v>
@@ -6652,19 +6652,19 @@
         <v>1284.800645453284</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553711</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W31" t="n">
-        <v>761.335504190908</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044214</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148359</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967896</v>
+        <v>964.5773097967881</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250961</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353658</v>
+        <v>341.9353438353655</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
@@ -6698,22 +6698,22 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>187.3366846949147</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550348</v>
+        <v>596.8002826177369</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610935</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321547</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630805</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P32" t="n">
         <v>3196.365573339991</v>
@@ -6728,22 +6728,22 @@
         <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485931</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284111</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743115</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
-        <v>271.002612953768</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
         <v>156.9153196189694</v>
@@ -6874,7 +6874,7 @@
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.33387136288</v>
@@ -6886,22 +6886,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553702</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.335504190907</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044205</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148353</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E35" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442188</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906264</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189935</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430095</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
@@ -6965,22 +6965,22 @@
         <v>2703.265184067727</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J36" t="n">
-        <v>54.47929472662988</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K36" t="n">
-        <v>330.0537850589848</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L36" t="n">
-        <v>757.8411716749296</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M36" t="n">
-        <v>1315.185389326668</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N36" t="n">
         <v>1524.421095758928</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.302977920108</v>
+        <v>87.58900179270651</v>
       </c>
       <c r="C37" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="D37" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="E37" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="F37" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062279</v>
       </c>
       <c r="G37" t="n">
-        <v>77.26745025740959</v>
+        <v>57.55347413000772</v>
       </c>
       <c r="H37" t="n">
-        <v>74.19327085403194</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I37" t="n">
-        <v>74.19327085403194</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K37" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L37" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162075</v>
+        <v>633.7324052888069</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598325</v>
+        <v>500.6835176324319</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544913</v>
+        <v>394.0762495270905</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081266</v>
+        <v>262.0478843807255</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397385</v>
+        <v>184.9234566123373</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682517</v>
+        <v>117.0163341408503</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
         <v>989.7116209018761</v>
@@ -7166,19 +7166,19 @@
         <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J38" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110224</v>
@@ -7199,10 +7199,10 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U38" t="n">
         <v>2534.702829655338</v>
@@ -7248,28 +7248,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662988</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>330.0537850589848</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L39" t="n">
-        <v>757.8411716749296</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>1315.185389326668</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N39" t="n">
-        <v>1900.675752997436</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O39" t="n">
-        <v>2360.776819362072</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P39" t="n">
-        <v>2360.776819362072</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.315897665168</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.20717640051004</v>
+        <v>107.3029779201073</v>
       </c>
       <c r="C40" t="n">
-        <v>73.7192431984264</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="D40" t="n">
-        <v>73.7192431984264</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="E40" t="n">
-        <v>73.7192431984264</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="F40" t="n">
-        <v>73.7192431984264</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="G40" t="n">
-        <v>59.17164873781141</v>
+        <v>57.55347413000766</v>
       </c>
       <c r="H40" t="n">
-        <v>56.09746933443366</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I40" t="n">
-        <v>56.09746933443366</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K40" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L40" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S40" t="n">
-        <v>713.3584478120541</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T40" t="n">
-        <v>635.3505798966099</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U40" t="n">
-        <v>502.301692240235</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>395.6944241348936</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W40" t="n">
-        <v>263.6660589885288</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X40" t="n">
-        <v>186.5416312201406</v>
+        <v>204.6374327397379</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.6345087486538</v>
+        <v>136.730310268251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018754</v>
+        <v>989.711620901877</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442184</v>
+        <v>749.05393734422</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906266</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J41" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932077</v>
       </c>
       <c r="L41" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430087</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O41" t="n">
         <v>2267.07359932105</v>
@@ -7430,31 +7430,31 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K42" t="n">
-        <v>148.0003125649519</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L42" t="n">
-        <v>575.7876991808967</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.131916832635</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N42" t="n">
-        <v>1718.622280503403</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
-        <v>2178.723346868039</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201075</v>
+        <v>87.589001792706</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802393</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802393</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802393</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802393</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000759</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K43" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L43" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316517</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162073</v>
+        <v>653.4463814162076</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598323</v>
+        <v>520.3974937598327</v>
       </c>
       <c r="V43" t="n">
-        <v>413.790225654491</v>
+        <v>413.7902256544915</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081262</v>
+        <v>281.7618605081268</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397381</v>
+        <v>204.6374327397387</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682513</v>
+        <v>117.0163341408497</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
         <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G44" t="n">
         <v>227.5990516189934</v>
@@ -7649,25 +7649,25 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L44" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N44" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R44" t="n">
         <v>2723.964736331494</v>
@@ -7676,7 +7676,7 @@
         <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
         <v>2534.702829655338</v>
@@ -7685,7 +7685,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939082</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.3029779201074</v>
+        <v>87.58900179270617</v>
       </c>
       <c r="C46" t="n">
-        <v>91.81504471802373</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D46" t="n">
-        <v>91.81504471802373</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E46" t="n">
-        <v>91.81504471802373</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F46" t="n">
-        <v>91.81504471802373</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G46" t="n">
-        <v>77.26745025740874</v>
+        <v>57.5534741300076</v>
       </c>
       <c r="H46" t="n">
-        <v>74.193270854031</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I46" t="n">
         <v>54.47929472662988</v>
@@ -7807,49 +7807,49 @@
         <v>54.47929472662988</v>
       </c>
       <c r="K46" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L46" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316515</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162073</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598323</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544909</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081261</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X46" t="n">
-        <v>204.637432739738</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682511</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>384.4025856017978</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.90890232336</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0622468547938</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>53.80710347724197</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.8391489829807</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4415561073551</v>
+        <v>203.9089023233591</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869876</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.813211049446</v>
+        <v>393.8132110494448</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153678</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869876</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>547.3811427999658</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.90890232336</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2633189153688</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>393.813211049445</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233591</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>137.2633189153683</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>323.9440945392022</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,13 +10200,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>53.80710347724197</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869876</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578766</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>243.0898773147929</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>53.80710347724197</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>253.2397604794536</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425137</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>159.9124116577331</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.9376611833964</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>109.1523293744701</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241305</v>
+        <v>61.32070768241303</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545163</v>
+        <v>84.0821803754516</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>35.01526201870161</v>
       </c>
       <c r="U11" t="n">
         <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898418</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.06696676840738</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774253</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592884</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227653</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271693</v>
+        <v>48.1627699127169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>103.7896494273916</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>49.65842039228676</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>303.3705710410314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241305</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842795</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
         <v>163.2962484526289</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438469</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196306</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774253</v>
+        <v>61.4917917577425</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592881</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227651</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.1627699127169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>50.6667884628358</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>41.24560752542834</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76587.66315073041</v>
+        <v>76587.66315073044</v>
       </c>
       <c r="C2" t="n">
         <v>76587.66315073041</v>
       </c>
       <c r="D2" t="n">
-        <v>76587.6631507304</v>
+        <v>76587.66315073043</v>
       </c>
       <c r="E2" t="n">
-        <v>66928.67981197673</v>
+        <v>66928.67981197669</v>
       </c>
       <c r="F2" t="n">
-        <v>66928.67981197673</v>
+        <v>66928.6798119767</v>
       </c>
       <c r="G2" t="n">
         <v>76762.40604941815</v>
       </c>
       <c r="H2" t="n">
-        <v>76762.4060494181</v>
+        <v>76762.40604941812</v>
       </c>
       <c r="I2" t="n">
         <v>76762.40604941812</v>
       </c>
       <c r="J2" t="n">
-        <v>76762.40604941815</v>
+        <v>76762.40604941812</v>
       </c>
       <c r="K2" t="n">
         <v>76762.40604941815</v>
@@ -26353,7 +26353,7 @@
         <v>76762.4060494182</v>
       </c>
       <c r="P2" t="n">
-        <v>76762.40604941823</v>
+        <v>76762.4060494182</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915244</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613922</v>
+        <v>83547.74167613924</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915246</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415065</v>
+        <v>149683.3109415064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561259</v>
+        <v>20455.48779561257</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>300146.3013995251</v>
       </c>
       <c r="I4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="J4" t="n">
         <v>298009.3859165157</v>
@@ -26445,10 +26445,10 @@
         <v>298009.3859165157</v>
       </c>
       <c r="L4" t="n">
-        <v>298009.3859165158</v>
+        <v>298009.3859165157</v>
       </c>
       <c r="M4" t="n">
-        <v>296992.7137695696</v>
+        <v>296992.7137695694</v>
       </c>
       <c r="N4" t="n">
         <v>296992.7137695695</v>
@@ -26491,7 +26491,7 @@
         <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462555</v>
@@ -26506,7 +26506,7 @@
         <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
         <v>57153.73105654695</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354110.0942529856</v>
+        <v>-354114.4628254528</v>
       </c>
       <c r="C6" t="n">
-        <v>-354110.0942529856</v>
+        <v>-354114.4628254528</v>
       </c>
       <c r="D6" t="n">
-        <v>-354110.0942529857</v>
+        <v>-354114.4628254528</v>
       </c>
       <c r="E6" t="n">
-        <v>-594003.2335441634</v>
+        <v>-594249.0767000994</v>
       </c>
       <c r="F6" t="n">
-        <v>-226172.8940291919</v>
+        <v>-226418.7371851279</v>
       </c>
       <c r="G6" t="n">
-        <v>-340276.9722015901</v>
+        <v>-340276.9722015902</v>
       </c>
       <c r="H6" t="n">
-        <v>-278733.1389924378</v>
+        <v>-278733.1389924377</v>
       </c>
       <c r="I6" t="n">
-        <v>-278733.1389924376</v>
+        <v>-278733.1389924377</v>
       </c>
       <c r="J6" t="n">
         <v>-369472.8329278624</v>
       </c>
       <c r="K6" t="n">
-        <v>-285925.0912517231</v>
+        <v>-285925.0912517232</v>
       </c>
       <c r="L6" t="n">
-        <v>-347468.9244608757</v>
+        <v>-347468.9244608756</v>
       </c>
       <c r="M6" t="n">
-        <v>-427067.3497182049</v>
+        <v>-427067.3497182045</v>
       </c>
       <c r="N6" t="n">
-        <v>-277384.0387766982</v>
+        <v>-277384.0387766983</v>
       </c>
       <c r="O6" t="n">
         <v>-297839.5265723108</v>
       </c>
       <c r="P6" t="n">
-        <v>-277384.0387766982</v>
+        <v>-277384.0387766983</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26707,7 +26707,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K2" t="n">
         <v>102.4991512559563</v>
@@ -26716,13 +26716,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="N2" t="n">
         <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
         <v>152.5867559728737</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207869</v>
       </c>
       <c r="K4" t="n">
         <v>874.0042625207867</v>
@@ -26820,13 +26820,13 @@
         <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
+        <v>680.9911840828736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>680.9911840828736</v>
+      </c>
+      <c r="O4" t="n">
         <v>680.9911840828735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>680.9911840828735</v>
-      </c>
-      <c r="O4" t="n">
-        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
         <v>680.9911840828735</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144056</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>25.56935974451559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.431426819679991e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>76.92979151144061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.08760471691734</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="O2" t="n">
         <v>25.56935974451571</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>76.92979151144057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.0876047169175</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>25.56935974451574</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793225</v>
+        <v>241.1377821793229</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.853401903551</v>
+        <v>439.8534019035509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144056</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451571</v>
+        <v>25.56935974451559</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591269</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591269</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855184</v>
       </c>
     </row>
     <row r="17">
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.44181485403817</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103333852</v>
       </c>
       <c r="T19" t="n">
         <v>165.9269238499924</v>
@@ -29010,7 +29010,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103333852</v>
       </c>
       <c r="U22" t="n">
         <v>165.9269238499924</v>
@@ -29019,7 +29019,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>9.96497110333479</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X22" t="n">
         <v>165.9269238499924</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
-        <v>17.58308433996146</v>
+        <v>155.6301935822177</v>
       </c>
       <c r="I25" t="n">
         <v>135.4931377608283</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103333852</v>
       </c>
       <c r="T25" t="n">
         <v>165.9269238499924</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1485704102012164</v>
+        <v>0.1485704102033765</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559581</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.148570410200989</v>
       </c>
       <c r="K29" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1485704102017849</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
         <v>102.4991512559563</v>
@@ -29770,7 +29770,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.148570410200989</v>
       </c>
       <c r="K32" t="n">
         <v>102.4991512559563</v>
@@ -29779,7 +29779,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1485704102019554</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
         <v>102.4991512559563</v>
@@ -29943,10 +29943,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
+        <v>102.4991512559569</v>
+      </c>
+      <c r="P34" t="n">
         <v>102.4991512559563</v>
-      </c>
-      <c r="P34" t="n">
-        <v>102.4991512559564</v>
       </c>
       <c r="Q34" t="n">
         <v>102.4991512559563</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30034,25 +30034,25 @@
         <v>55.88797492591269</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>22.85329018776255</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067474</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="38">
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>130.9720877301674</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>40.76813369216485</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30508,25 +30508,25 @@
         <v>55.88797492591269</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>133.0699196067464</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
@@ -30666,25 +30666,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067455</v>
       </c>
     </row>
     <row r="44">
@@ -30873,7 +30873,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
-        <v>115.9763013947012</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
         <v>42.37012655389059</v>
@@ -30903,7 +30903,7 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067463</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728737</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I11" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J11" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S11" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N12" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R12" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T12" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H13" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J13" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N13" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O13" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P13" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I14" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J14" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N15" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R15" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T15" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H16" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J16" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N16" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O16" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P16" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R16" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I17" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J17" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N18" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T18" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H19" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N19" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O19" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P19" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R19" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I20" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J20" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N21" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T21" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H22" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N22" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O22" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P22" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R22" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I23" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J23" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N24" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T24" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H25" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N25" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O25" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P25" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R25" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I26" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J26" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N27" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T27" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H28" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N28" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O28" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P28" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R28" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I29" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J29" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S29" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N30" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R30" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T30" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H31" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N31" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O31" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P31" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R31" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314498</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I32" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J32" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S32" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N33" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R33" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T33" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H34" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N34" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O34" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P34" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R34" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I35" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J35" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S35" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N36" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R36" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T36" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H37" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N37" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O37" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P37" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R37" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I38" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J38" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S38" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N39" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R39" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T39" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H40" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N40" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O40" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P40" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R40" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I41" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J41" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S41" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N42" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R42" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T42" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H43" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N43" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O43" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P43" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R43" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642842</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350226</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I44" t="n">
         <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.7279946609567</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701286</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611584</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780468</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337921</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427434</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815607</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563512</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319249</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S44" t="n">
         <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467655</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514272</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097962</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634085</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736406</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194088</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309722</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588799</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061809</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N45" t="n">
-        <v>74.9744621693395</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483295</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690135</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149609</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R45" t="n">
         <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429764</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T45" t="n">
         <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459464</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H46" t="n">
         <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519919</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607841</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608359</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630917</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653594</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N46" t="n">
         <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.1598969290507</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P46" t="n">
         <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844648</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R46" t="n">
         <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412538</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054803</v>
+        <v>274.1139918647639</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785868</v>
@@ -35419,7 +35419,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O11" t="n">
         <v>398.8632430757228</v>
@@ -35428,7 +35428,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.4673462160049</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O12" t="n">
-        <v>356.7897836785156</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1628128732074</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466122</v>
+        <v>46.62700578466125</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M13" t="n">
         <v>246.066406569938</v>
@@ -35580,13 +35580,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415043</v>
+        <v>71.08228883415046</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.46734621600476</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>311.1004426054803</v>
@@ -35656,7 +35656,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O14" t="n">
         <v>398.8632430757228</v>
@@ -35665,7 +35665,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>81.46734621600399</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q15" t="n">
         <v>196.1628128732074</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466122</v>
+        <v>46.62700578466125</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M16" t="n">
         <v>246.066406569938</v>
@@ -35817,13 +35817,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415043</v>
+        <v>71.08228883415046</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>436.4223628785868</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200915</v>
+        <v>301.2613619200904</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O17" t="n">
         <v>398.8632430757228</v>
@@ -35969,16 +35969,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434605</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886187</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q18" t="n">
         <v>196.1628128732074</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
         <v>311.1004426054803</v>
@@ -36127,10 +36127,10 @@
         <v>436.4223628785868</v>
       </c>
       <c r="M20" t="n">
-        <v>491.8157444113278</v>
+        <v>454.8292936706114</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O20" t="n">
         <v>398.8632430757228</v>
@@ -36139,7 +36139,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.4673462160049</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
-        <v>94.82069326434697</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q21" t="n">
         <v>196.1628128732074</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054803</v>
@@ -36364,10 +36364,10 @@
         <v>436.4223628785868</v>
       </c>
       <c r="M23" t="n">
-        <v>301.2613619200906</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O23" t="n">
         <v>398.8632430757228</v>
@@ -36376,7 +36376,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600399</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>94.82069326434652</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q24" t="n">
         <v>196.1628128732074</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>436.570933288788</v>
+        <v>436.5709332887902</v>
       </c>
       <c r="M26" t="n">
         <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O26" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
         <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q27" t="n">
         <v>196.1628128732074</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206562</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M28" t="n">
         <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700394</v>
       </c>
       <c r="O28" t="n">
         <v>236.1172769685319</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155489</v>
+        <v>84.58430775155483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>118.602367366921</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614366</v>
       </c>
       <c r="L29" t="n">
-        <v>436.5709332887886</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
         <v>594.3148956672842</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K30" t="n">
-        <v>258.4973574656328</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
         <v>432.1084713292371</v>
@@ -36920,13 +36920,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q30" t="n">
         <v>196.1628128732074</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>118.602367366921</v>
       </c>
       <c r="K32" t="n">
         <v>413.5995938614366</v>
@@ -37075,7 +37075,7 @@
         <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>491.9643148215298</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
         <v>580.7873033426847</v>
@@ -37090,7 +37090,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.6111763300436</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q33" t="n">
         <v>196.1628128732074</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565282</v>
@@ -37233,16 +37233,16 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685325</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016308</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
         <v>84.58430775155492</v>
@@ -37315,7 +37315,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O35" t="n">
         <v>398.8632430757228</v>
@@ -37324,7 +37324,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5679317505215</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427827</v>
@@ -37394,13 +37394,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3491984164241</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
@@ -37552,7 +37552,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O38" t="n">
         <v>398.8632430757228</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37631,16 +37631,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.3020992960572</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
@@ -37780,7 +37780,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054799</v>
       </c>
       <c r="L41" t="n">
         <v>436.4223628785868</v>
@@ -37789,7 +37789,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O41" t="n">
         <v>398.8632430757228</v>
@@ -37798,7 +37798,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505211</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K42" t="n">
-        <v>94.46567458416364</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L42" t="n">
         <v>432.1084713292371</v>
@@ -37868,16 +37868,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
@@ -38026,7 +38026,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O44" t="n">
         <v>398.8632430757228</v>
@@ -38111,7 +38111,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057189</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
